--- a/results/ResNet18/Imagenette/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06</v>
+        <v>0.033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.241</v>
+        <v>0.367</v>
       </c>
       <c r="D4" t="n">
-        <v>301.67</v>
+        <v>1012.12</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.185</v>
+        <v>0.428</v>
       </c>
       <c r="D5" t="n">
-        <v>560.71</v>
+        <v>1845.45</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.057</v>
+        <v>0.022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.171</v>
+        <v>0.237</v>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>977.27</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.383227499318309</v>
+        <v>1.87693897052668</v>
       </c>
       <c r="C4" t="n">
-        <v>2.117448654724285</v>
+        <v>2.285192967043258</v>
       </c>
       <c r="D4" t="n">
-        <v>53.08</v>
+        <v>21.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1595067190313247</v>
+        <v>0.7239772710145257</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1925232564876482</v>
+        <v>0.566785336726715</v>
       </c>
       <c r="G4" t="n">
-        <v>20.7</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.46011968940864</v>
+        <v>8.983061650992564</v>
       </c>
       <c r="C6" t="n">
-        <v>8.933645700217268</v>
+        <v>6.91745297713243</v>
       </c>
       <c r="D6" t="n">
-        <v>-14.59</v>
+        <v>-22.99</v>
       </c>
       <c r="E6" t="n">
-        <v>1.564572157592188</v>
+        <v>2.671205849806151</v>
       </c>
       <c r="F6" t="n">
-        <v>1.283994818912259</v>
+        <v>2.327038114323372</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.93</v>
+        <v>-12.88</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
